--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="3"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -55,27 +55,6 @@
     <t>cancelled</t>
   </si>
   <si>
-    <t>100h</t>
-  </si>
-  <si>
-    <t>200h</t>
-  </si>
-  <si>
-    <t>400h</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>450h</t>
-  </si>
-  <si>
-    <t>40h</t>
-  </si>
-  <si>
-    <t>180h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -118,33 +97,15 @@
     <t>Patient Model</t>
   </si>
   <si>
-    <t>Admit new patient</t>
-  </si>
-  <si>
     <t>Data model for patient record needs to be created based on standard....</t>
   </si>
   <si>
-    <t>a new patient makes contact on reference from Dr. Boehm. After creating a new patient record, the medical history...</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
     <t>Effort Plan Updated</t>
   </si>
   <si>
-    <t>0h</t>
-  </si>
-  <si>
-    <t>50h</t>
-  </si>
-  <si>
-    <t>350h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -161,6 +122,108 @@
   </si>
   <si>
     <t>Time of Record</t>
+  </si>
+  <si>
+    <t>Marwin Philips</t>
+  </si>
+  <si>
+    <t>MarwinPhilips</t>
+  </si>
+  <si>
+    <t>Mete Turna</t>
+  </si>
+  <si>
+    <t>turnm1</t>
+  </si>
+  <si>
+    <t>Amin Ghodrati</t>
+  </si>
+  <si>
+    <t>ghodm1</t>
+  </si>
+  <si>
+    <t>Jonas Mosimann</t>
+  </si>
+  <si>
+    <t>QuanTumli</t>
+  </si>
+  <si>
+    <t>Michel Murbach</t>
+  </si>
+  <si>
+    <t>murbm1</t>
+  </si>
+  <si>
+    <t>Carole Kaiser</t>
+  </si>
+  <si>
+    <t>kaisc3</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Medikamente erfassen</t>
+  </si>
+  <si>
+    <t>Medikament editieren</t>
+  </si>
+  <si>
+    <t>Medikament absetzen</t>
+  </si>
+  <si>
+    <t>Medikament einnehmen</t>
+  </si>
+  <si>
+    <t>Erinnerung an Medikament</t>
+  </si>
+  <si>
+    <t>Medikamente richten</t>
+  </si>
+  <si>
+    <t>Medikamentenübersicht betrachten</t>
+  </si>
+  <si>
+    <t>Medikamenteninformationen aufrufen</t>
+  </si>
+  <si>
+    <t>Reservemedikament erfassen</t>
+  </si>
+  <si>
+    <t>Medikamentenänderungen verfolgen</t>
+  </si>
+  <si>
+    <t>Anna can login, logout, change the password and register.</t>
+  </si>
+  <si>
+    <t>Anna adds a new medicament to her medication list.</t>
+  </si>
+  <si>
+    <t>Anna edits an existing medicament of her medication list</t>
+  </si>
+  <si>
+    <t>Anna stops an existing medicament of her medication list</t>
+  </si>
+  <si>
+    <t>Anna applied her medicament.</t>
+  </si>
+  <si>
+    <t>Anna gets alarmed to take her medicament</t>
+  </si>
+  <si>
+    <t>Anna prepares her medicament for the Week</t>
+  </si>
+  <si>
+    <t>Anna wants to get more information about a medicament</t>
+  </si>
+  <si>
+    <t>Anna adds a new reserve medicament to her medication list</t>
+  </si>
+  <si>
+    <t>Anna sees all her medicaments in an overwview</t>
+  </si>
+  <si>
+    <t>Anna tracks her medication changes.</t>
   </si>
 </sst>
 </file>
@@ -236,9 +299,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -248,10 +336,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H18"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Story Name"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Priority "/>
+    <tableColumn id="5" name="Effort Plan Original"/>
+    <tableColumn id="6" name="Effort Plan Updated"/>
+    <tableColumn id="7" name="Effort Actual"/>
+    <tableColumn id="8" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +394,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -361,7 +466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,13 +640,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
@@ -552,7 +657,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -562,21 +715,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
     <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -594,107 +747,178 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -706,7 +930,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="6.21875" customWidth="1"/>
@@ -727,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -736,25 +960,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
@@ -768,19 +992,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -806,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -838,13 +1062,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -871,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -903,13 +1127,13 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -936,11 +1160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
@@ -949,16 +1173,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -34,27 +34,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
     <t>work in progress</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -70,36 +52,9 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>UI, Controller</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -224,6 +179,48 @@
   </si>
   <si>
     <t>Anna tracks her medication changes.</t>
+  </si>
+  <si>
+    <t>Medication Data Model</t>
+  </si>
+  <si>
+    <t>Database, JPA Classes</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Medication overview</t>
+  </si>
+  <si>
+    <t>UI, Controller, Modell</t>
+  </si>
+  <si>
+    <t>Implement the Design as planned</t>
+  </si>
+  <si>
+    <t>Data model for medication records needs to be created based on our developed class diagram. Create some simple example data</t>
+  </si>
+  <si>
+    <t>Create top Navigation and View Controller, which can be used on every page</t>
+  </si>
+  <si>
+    <t>Marwin</t>
+  </si>
+  <si>
+    <t>Mete</t>
+  </si>
+  <si>
+    <t>Amin</t>
+  </si>
+  <si>
+    <t>Carole</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>Jonas</t>
   </si>
 </sst>
 </file>
@@ -657,55 +654,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -717,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -747,97 +744,98 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -845,41 +843,41 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -887,30 +885,31 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -924,19 +923,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
@@ -951,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -960,66 +959,60 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1027,31 +1020,31 @@
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1061,94 +1054,29 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>5</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2.1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1173,16 +1101,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="9312" activeTab="2"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="7812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -221,6 +221,58 @@
   </si>
   <si>
     <t>Jonas</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Medication entry View</t>
+  </si>
+  <si>
+    <t>Create the planned Views for the entry of a new Medicament</t>
+  </si>
+  <si>
+    <t>Optimize the medication dose schema to enter a new Medicament</t>
+  </si>
+  <si>
+    <t>Modell, Database</t>
+  </si>
+  <si>
+    <t>Validate and save an entered medicament</t>
+  </si>
+  <si>
+    <t>Navigate to the new View and Back</t>
+  </si>
+  <si>
+    <t>Controller, Modell</t>
+  </si>
+  <si>
+    <t>Medication validation</t>
+  </si>
+  <si>
+    <t>Navigate to the new view over the Medicationoverview-List</t>
+  </si>
+  <si>
+    <t>Medication edit View</t>
+  </si>
+  <si>
+    <t>Create the planned Editing view to edit an existing medicament by using 2,3.
+Do not implement history yet.</t>
+  </si>
+  <si>
+    <t>Stop a Medication</t>
+  </si>
+  <si>
+    <t>Stop an existing Medication over the Medicationoverview-List</t>
+  </si>
+  <si>
+    <t>GUI Optimization</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Create a nice SCSS file to beautify our GUI</t>
   </si>
 </sst>
 </file>
@@ -276,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -294,6 +346,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -715,14 +770,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
@@ -923,10 +978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +989,7 @@
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="6.21875" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="4" max="4" width="85.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
@@ -1009,10 +1064,10 @@
         <v>12</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1041,10 +1096,10 @@
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1073,9 +1128,241 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\workspace\ch.bfh.btx8081.w2015.schwarz\Documents\Task 10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="7812" activeTab="2"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="7812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
-    <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
+    <sheet name="BurndownChart" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -65,18 +70,6 @@
   </si>
   <si>
     <t>GitHub Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint </t>
-  </si>
-  <si>
-    <t>Remaining Effort</t>
-  </si>
-  <si>
-    <t>Remaining Ressources</t>
-  </si>
-  <si>
-    <t>Time of Record</t>
   </si>
   <si>
     <t>Marwin Philips</t>
@@ -273,13 +266,73 @@
   </si>
   <si>
     <t>Create a nice SCSS file to beautify our GUI</t>
+  </si>
+  <si>
+    <t>Burndown chart</t>
+  </si>
+  <si>
+    <t>Burned down</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Weekly Completed</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Grafik</t>
+  </si>
+  <si>
+    <t>KW 48</t>
+  </si>
+  <si>
+    <t>KW 49</t>
+  </si>
+  <si>
+    <t>KW 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 50</t>
+  </si>
+  <si>
+    <t>KW 51</t>
+  </si>
+  <si>
+    <t>KW 53</t>
+  </si>
+  <si>
+    <t>KW 01</t>
+  </si>
+  <si>
+    <t>KW 02</t>
+  </si>
+  <si>
+    <t>KW 03</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Schluss Präsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +348,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,12 +403,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -324,11 +422,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -342,12 +464,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,8 +532,1089 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12468208875299276"/>
+          <c:y val="0.1475413772769843"/>
+          <c:w val="0.56106939938846734"/>
+          <c:h val="0.62841697729085899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Weekly Completed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$G$6:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="231572328"/>
+        <c:axId val="231565664"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Planned</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.48000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.48000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.850000000000023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.220000000000027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.590000000000025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.9999999999977831E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="231572328"/>
+        <c:axId val="231565664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="231572328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231565664"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="231565664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231572328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.98425196899999989" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999989" header="0.51180555555555562" footer="0.51180555555555562"/>
+    <c:pageSetup firstPageNumber="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,9 +1635,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,9 +1675,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,7 +1712,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +1747,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,50 +1943,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +1999,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>36</v>
@@ -830,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3"/>
       <c r="E3">
@@ -845,10 +2074,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -859,10 +2088,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -873,10 +2102,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -887,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -901,10 +2130,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -915,10 +2144,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -929,10 +2158,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -943,10 +2172,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -957,10 +2186,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -980,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,19 +2275,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -1067,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1078,19 +2307,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -1099,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1110,19 +2339,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -1131,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1142,19 +2371,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <v>20</v>
@@ -1171,19 +2400,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -1200,19 +2429,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1229,19 +2458,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1258,19 +2487,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1287,19 +2516,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1316,19 +2545,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1345,19 +2574,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1373,63 +2602,363 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>261</v>
+      </c>
+      <c r="F5" s="9">
+        <v>261</v>
+      </c>
+      <c r="G5" s="9">
+        <f>IF(D5="",NA(),D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>42262</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>42263</v>
-      </c>
-      <c r="C3">
-        <v>190</v>
-      </c>
-      <c r="D3">
-        <v>180</v>
-      </c>
+      <c r="C6" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D6" s="9">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9">
+        <f>E5-C6</f>
+        <v>228.37</v>
+      </c>
+      <c r="F6" s="9">
+        <f>IF(D6="",NA(),$F$5-SUM($D$6:D6))</f>
+        <v>225</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" ref="G6:G14" si="0">IF(D6="",NA(),D6)</f>
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:E14" si="1">E6-C7</f>
+        <v>195.74</v>
+      </c>
+      <c r="F7" s="9">
+        <f>IF(D7="",NA(),$F$5-SUM($D$6:D7))</f>
+        <v>225</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>163.11000000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <f>IF(D8="",NA(),$F$5-SUM($D$6:D8))</f>
+        <v>225</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>130.48000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f>IF(D9="",NA(),$F$5-SUM($D$6:D9))</f>
+        <v>225</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>130.48000000000002</v>
+      </c>
+      <c r="F10" s="9">
+        <f>IF(D10="",NA(),$F$5-SUM($D$6:D10))</f>
+        <v>225</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>97.850000000000023</v>
+      </c>
+      <c r="F11" s="9">
+        <f>IF(D11="",NA(),$F$5-SUM($D$6:D11))</f>
+        <v>225</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>65.220000000000027</v>
+      </c>
+      <c r="F12" s="9">
+        <f>IF(D12="",NA(),$F$5-SUM($D$6:D12))</f>
+        <v>225</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="9">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>32.590000000000025</v>
+      </c>
+      <c r="F13" s="9">
+        <f>IF(D13="",NA(),$F$5-SUM($D$6:D13))</f>
+        <v>225</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999977831E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <f>IF(D14="",NA(),$F$5-SUM($D$6:D14))</f>
+        <v>225</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>Schluss Präsi</t>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +420,24 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -450,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -497,6 +524,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -644,8 +674,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="231572328"/>
-        <c:axId val="231565664"/>
+        <c:axId val="243697616"/>
+        <c:axId val="243704672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -792,11 +822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231572328"/>
-        <c:axId val="231565664"/>
+        <c:axId val="243697616"/>
+        <c:axId val="243704672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231572328"/>
+        <c:axId val="243697616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +916,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231565664"/>
+        <c:crossAx val="243704672"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231565664"/>
+        <c:axId val="243704672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -995,7 +1025,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231572328"/>
+        <c:crossAx val="243697616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2605,7 +2635,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2727,6 +2757,9 @@
       <c r="H6" t="s">
         <v>99</v>
       </c>
+      <c r="I6" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -2753,6 +2786,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -2779,6 +2813,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I8" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -2805,6 +2842,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -2858,6 +2896,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I11" s="19"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2885,6 +2924,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I12" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2912,6 +2954,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I13" s="19"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2942,6 +2985,7 @@
       <c r="H14" t="s">
         <v>100</v>
       </c>
+      <c r="I14" s="19"/>
       <c r="J14" s="12"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\workspace\ch.bfh.btx8081.w2015.schwarz\Documents\Task 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turna\workspace\ch.bfh.btx8081.w2015.schwarz\trunk\Documents\Task 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="16488" windowHeight="7812" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -335,12 +335,57 @@
   </si>
   <si>
     <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Unit Test's</t>
+  </si>
+  <si>
+    <t>Medication Photo</t>
+  </si>
+  <si>
+    <t>Create for the logical classes unit test's for testing</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Implement the photo of the medication</t>
+  </si>
+  <si>
+    <t>Prescription historization</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historization the Insert, editing, and deleting of the Prescription </t>
+  </si>
+  <si>
+    <t>Medication extern Information</t>
+  </si>
+  <si>
+    <t>Insert a Compendium link for additional information</t>
+  </si>
+  <si>
+    <t>Alert Popup</t>
+  </si>
+  <si>
+    <t>Create a login page for the patient</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>sprint 3</t>
+  </si>
+  <si>
+    <t>Create a alert popup for the daily medication with applied funktion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,6 +554,9 @@
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +572,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -570,7 +615,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -664,6 +709,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0578-4E58-90C1-91993B39FDE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -746,6 +796,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0578-4E58-90C1-91993B39FDE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -811,6 +866,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0578-4E58-90C1-91993B39FDE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -855,7 +915,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -970,7 +1029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1039,7 +1097,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1665,7 +1722,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1957,13 +2014,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +2028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +2036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1987,7 +2044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1995,7 +2052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +2060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2011,7 +2068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2029,22 +2086,22 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2083,8 +2140,11 @@
       <c r="E2">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2098,8 +2158,11 @@
       <c r="E3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2112,8 +2175,11 @@
       <c r="E4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2126,8 +2192,11 @@
       <c r="E5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2140,8 +2209,11 @@
       <c r="E6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2154,8 +2226,11 @@
       <c r="E7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2168,8 +2243,11 @@
       <c r="E8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2182,8 +2260,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2196,8 +2277,11 @@
       <c r="E10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2210,8 +2294,11 @@
       <c r="E11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2224,6 +2311,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2237,29 +2327,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="85.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2329,7 +2419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2361,7 +2451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2393,7 +2483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2419,10 +2509,10 @@
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2447,11 +2537,14 @@
       <c r="I6">
         <v>10</v>
       </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
       <c r="L6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -2477,10 +2570,10 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.4</v>
       </c>
@@ -2506,10 +2599,10 @@
         <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -2535,10 +2628,10 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -2564,10 +2657,10 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -2593,10 +2686,10 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
@@ -2622,6 +2715,144 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2634,57 +2865,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
@@ -2703,9 +2934,9 @@
       <c r="F4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2729,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
@@ -2757,11 +2988,11 @@
       <c r="H6" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -2786,9 +3017,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -2813,11 +3044,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -2842,9 +3073,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>92</v>
       </c>
@@ -2871,7 +3102,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -2896,10 +3127,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -2924,12 +3155,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="14" t="s">
         <v>103</v>
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
@@ -2954,10 +3185,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
@@ -2985,13 +3216,13 @@
       <c r="H14" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turna\workspace\ch.bfh.btx8081.w2015.schwarz\trunk\Documents\Task 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\workspace\ch.bfh.btx8081.w2015.schwarz\Documents\Task 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="396" yWindow="120" windowWidth="16488" windowHeight="7812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -683,13 +683,13 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -709,7 +709,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -724,8 +724,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="243697616"/>
-        <c:axId val="243704672"/>
+        <c:axId val="239214040"/>
+        <c:axId val="239214432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -769,34 +769,34 @@
                   <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>225</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>225</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>225</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>225</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -866,7 +866,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -882,11 +882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243697616"/>
-        <c:axId val="243704672"/>
+        <c:axId val="239214040"/>
+        <c:axId val="239214432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243697616"/>
+        <c:axId val="239214040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,6 +915,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -975,7 +976,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243704672"/>
+        <c:crossAx val="239214432"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243704672"/>
+        <c:axId val="239214432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1029,6 +1030,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1083,7 +1085,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243697616"/>
+        <c:crossAx val="239214040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,6 +1099,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,7 +1725,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2014,13 +2017,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2089,19 +2092,19 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2330,26 +2333,26 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="85.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2508,11 +2511,14 @@
       <c r="I5">
         <v>20</v>
       </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
       <c r="L5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2538,13 +2544,13 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -2569,11 +2575,14 @@
       <c r="I7">
         <v>15</v>
       </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
       <c r="L7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.4</v>
       </c>
@@ -2598,11 +2607,14 @@
       <c r="I8">
         <v>4</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="L8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -2627,11 +2639,14 @@
       <c r="I9">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
       <c r="L9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -2656,11 +2671,14 @@
       <c r="I10">
         <v>5</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="L10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -2685,11 +2703,14 @@
       <c r="I11">
         <v>10</v>
       </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
       <c r="L11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.4</v>
       </c>
@@ -2714,11 +2735,14 @@
       <c r="I12">
         <v>10</v>
       </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
       <c r="L12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.0999999999999996</v>
       </c>
@@ -2741,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.5</v>
       </c>
@@ -2764,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.5</v>
       </c>
@@ -2787,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.0999999999999996</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.4</v>
       </c>
@@ -2833,7 +2857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.1</v>
       </c>
@@ -2866,17 +2890,17 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>81</v>
       </c>
@@ -2891,7 +2915,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="18" t="s">
@@ -2915,7 +2939,7 @@
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
@@ -2936,7 +2960,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2960,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
@@ -2992,7 +3016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -3003,7 +3027,7 @@
         <v>32.630000000000003</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ref="E7:E14" si="1">E6-C7</f>
@@ -3011,15 +3035,15 @@
       </c>
       <c r="F7" s="9">
         <f>IF(D7="",NA(),$F$5-SUM($D$6:D7))</f>
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -3030,7 +3054,7 @@
         <v>32.630000000000003</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="1"/>
@@ -3038,17 +3062,17 @@
       </c>
       <c r="F8" s="9">
         <f>IF(D8="",NA(),$F$5-SUM($D$6:D8))</f>
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -3059,7 +3083,7 @@
         <v>32.630000000000003</v>
       </c>
       <c r="D9" s="9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="1"/>
@@ -3067,15 +3091,15 @@
       </c>
       <c r="F9" s="9">
         <f>IF(D9="",NA(),$F$5-SUM($D$6:D9))</f>
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>92</v>
       </c>
@@ -3094,7 +3118,7 @@
       </c>
       <c r="F10" s="9">
         <f>IF(D10="",NA(),$F$5-SUM($D$6:D10))</f>
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
@@ -3102,7 +3126,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -3121,7 +3145,7 @@
       </c>
       <c r="F11" s="9">
         <f>IF(D11="",NA(),$F$5-SUM($D$6:D11))</f>
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
@@ -3130,7 +3154,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -3149,7 +3173,7 @@
       </c>
       <c r="F12" s="9">
         <f>IF(D12="",NA(),$F$5-SUM($D$6:D12))</f>
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
@@ -3160,7 +3184,7 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
@@ -3179,7 +3203,7 @@
       </c>
       <c r="F13" s="9">
         <f>IF(D13="",NA(),$F$5-SUM($D$6:D13))</f>
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
@@ -3188,7 +3212,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
@@ -3207,7 +3231,7 @@
       </c>
       <c r="F14" s="9">
         <f>IF(D14="",NA(),$F$5-SUM($D$6:D14))</f>
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
@@ -3219,10 +3243,10 @@
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\workspace\ch.bfh.btx8081.w2015.schwarz\Documents\Task 10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="120" windowWidth="16488" windowHeight="7812" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
-    <sheet name="BurndownChart" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint Work Time" sheetId="6" r:id="rId4"/>
+    <sheet name="BurndownChart" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -337,56 +338,80 @@
     <t>Sprint3</t>
   </si>
   <si>
-    <t>Unit Test's</t>
-  </si>
-  <si>
-    <t>Medication Photo</t>
-  </si>
-  <si>
     <t>Create for the logical classes unit test's for testing</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Implement the photo of the medication</t>
-  </si>
-  <si>
-    <t>Prescription historization</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t xml:space="preserve">historization the Insert, editing, and deleting of the Prescription </t>
-  </si>
-  <si>
-    <t>Medication extern Information</t>
-  </si>
-  <si>
-    <t>Insert a Compendium link for additional information</t>
-  </si>
-  <si>
-    <t>Alert Popup</t>
-  </si>
-  <si>
-    <t>Create a login page for the patient</t>
-  </si>
-  <si>
     <t>not used</t>
   </si>
   <si>
     <t>sprint 3</t>
   </si>
   <si>
-    <t>Create a alert popup for the daily medication with applied funktion</t>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Medication Feedback View</t>
+  </si>
+  <si>
+    <t>Medication Feedback Model</t>
+  </si>
+  <si>
+    <t>Implement the functionality of Feedback View</t>
+  </si>
+  <si>
+    <t>Create a Feedback View</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Junit Test's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate and save an entered medicament </t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Clean the Code</t>
+  </si>
+  <si>
+    <t>Code cleaning, comments, review</t>
+  </si>
+  <si>
+    <t>UI, Controller, Modell, Database</t>
+  </si>
+  <si>
+    <t>functionality of the save button</t>
+  </si>
+  <si>
+    <t>functionality of the delet button (save)</t>
+  </si>
+  <si>
+    <t>Sprint ID</t>
+  </si>
+  <si>
+    <t>Programmer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marwin </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +466,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +518,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -522,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -557,6 +608,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,7 +699,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -709,7 +793,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -796,7 +880,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -866,7 +950,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -915,7 +999,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1030,7 +1113,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1099,7 +1181,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1725,7 +1806,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2017,13 +2098,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2039,7 +2120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2047,7 +2128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2063,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2071,7 +2152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2092,19 +2173,19 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2144,10 +2225,10 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2162,10 +2243,10 @@
         <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2179,10 +2260,10 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2196,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2213,10 +2294,10 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2230,10 +2311,10 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2247,10 +2328,10 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2264,10 +2345,10 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2281,10 +2362,10 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2298,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2316,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2330,29 +2411,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="85.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2422,7 +2503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2454,7 +2535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2486,7 +2567,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2518,7 +2599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2550,7 +2631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -2579,10 +2660,10 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.4</v>
       </c>
@@ -2614,7 +2695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -2643,10 +2724,10 @@
         <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -2678,7 +2759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -2707,10 +2788,10 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
@@ -2742,141 +2823,230 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="22">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1.5</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
+      <c r="K14">
+        <f>'Sprint Work Time'!E2</f>
+        <v>0</v>
+      </c>
       <c r="L14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2.5</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="22">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <f>'Sprint Work Time'!E3</f>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="22">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <f>'Sprint Work Time'!E4</f>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1.4</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="B17" s="22">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <f>'Sprint Work Time'!E5</f>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>6.1</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>6.2</v>
+      </c>
+      <c r="B18" s="22">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <f>'Sprint Work Time'!E6</f>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>7.1</v>
+      </c>
+      <c r="B19" s="30">
+        <v>3</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28">
+        <v>20</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19">
+        <f>'Sprint Work Time'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>7.2</v>
+      </c>
+      <c r="B20" s="30">
+        <v>3</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28">
+        <v>20</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20">
+        <f>'Sprint Work Time'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2887,59 +3057,292 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="19">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="19">
+        <v>10</v>
+      </c>
+      <c r="E2" s="19">
+        <f>SUM(G2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="19">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="19">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19">
+        <f t="shared" ref="E3:E8" si="0">SUM(G3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="19">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="19">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="19">
+        <v>15</v>
+      </c>
+      <c r="E6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>7.1</v>
+      </c>
+      <c r="B7" s="27">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="27">
+        <v>20</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="B8" s="27">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="27">
+        <v>20</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
@@ -2958,9 +3361,9 @@
       <c r="F4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2984,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
@@ -3016,7 +3419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -3043,7 +3446,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -3072,7 +3475,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -3099,7 +3502,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>92</v>
       </c>
@@ -3126,7 +3529,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -3154,7 +3557,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -3184,7 +3587,7 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
@@ -3212,7 +3615,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
@@ -3243,10 +3646,10 @@
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Turna\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="120" windowWidth="16485" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16788" windowHeight="4608" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,7 +13,8 @@
     <sheet name="Sprint Work Time" sheetId="6" r:id="rId4"/>
     <sheet name="BurndownChart" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
+  <oleSize ref="A1:H13"/>
 </workbook>
 </file>
 
@@ -410,7 +406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,9 +695,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="de-CH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -793,7 +789,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -808,8 +804,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="239214040"/>
-        <c:axId val="239214432"/>
+        <c:axId val="109001344"/>
+        <c:axId val="109011712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -880,7 +876,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -950,7 +946,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -966,11 +962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="239214040"/>
-        <c:axId val="239214432"/>
+        <c:axId val="109001344"/>
+        <c:axId val="109011712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239214040"/>
+        <c:axId val="109001344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,6 +995,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1007,23 +1004,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1059,7 +1039,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239214432"/>
+        <c:crossAx val="109011712"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239214432"/>
+        <c:axId val="109011712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1113,6 +1093,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1121,23 +1102,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx2"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1167,7 +1131,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239214040"/>
+        <c:crossAx val="109001344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,6 +1145,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1806,9 +1771,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1846,9 +1811,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1883,7 +1848,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1918,7 +1883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2098,13 +2063,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2136,7 +2101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2144,7 +2109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2152,7 +2117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2169,23 +2134,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2228,7 +2193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2246,7 +2211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2263,7 +2228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2280,7 +2245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2297,7 +2262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2314,7 +2279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2331,7 +2296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2348,7 +2313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2365,7 +2330,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2413,24 +2378,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="85.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2471,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2503,7 +2468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2535,7 +2500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2567,7 +2532,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2599,7 +2564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2631,7 +2596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -2663,7 +2628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.4</v>
       </c>
@@ -2727,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -2759,7 +2724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -2791,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
@@ -2823,7 +2788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>118</v>
       </c>
@@ -2856,7 +2821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>115</v>
       </c>
@@ -2889,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -2922,7 +2887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>6.1</v>
       </c>
@@ -2955,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>6.2</v>
       </c>
@@ -2988,7 +2953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>7.1</v>
       </c>
@@ -3019,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <v>7.2</v>
       </c>
@@ -3060,13 +3025,13 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3107,7 +3072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>118</v>
       </c>
@@ -3132,7 +3097,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>115</v>
       </c>
@@ -3157,7 +3122,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -3182,7 +3147,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>6.1</v>
       </c>
@@ -3207,7 +3172,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>6.2</v>
       </c>
@@ -3232,7 +3197,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>7.1</v>
       </c>
@@ -3257,7 +3222,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>7.2</v>
       </c>
@@ -3296,11 +3261,11 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -3318,7 +3283,7 @@
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="33" t="s">
@@ -3342,7 +3307,7 @@
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
@@ -3363,7 +3328,7 @@
       </c>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -3387,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
@@ -3419,7 +3384,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -3446,7 +3411,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -3475,7 +3440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -3502,7 +3467,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>92</v>
       </c>
@@ -3529,7 +3494,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -3557,7 +3522,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -3587,7 +3552,7 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
@@ -3615,7 +3580,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
@@ -3646,10 +3611,10 @@
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quantumli\workspace\ch.bfh.btx8081.w2015.schwarz\Documents\Task 10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="16788" windowHeight="4608" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16785" windowHeight="4605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -13,8 +18,7 @@
     <sheet name="Sprint Work Time" sheetId="6" r:id="rId4"/>
     <sheet name="BurndownChart" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <oleSize ref="A1:H13"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -406,7 +410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,9 +699,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -789,7 +793,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -876,7 +880,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -946,7 +950,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0578-4E58-90C1-91993B39FDE3}"/>
             </c:ext>
@@ -995,7 +999,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1004,6 +1007,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1093,7 +1113,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1102,6 +1121,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1145,7 +1181,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1771,9 +1806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1811,9 +1846,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1848,7 +1883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1883,7 +1918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2063,13 +2098,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2101,7 +2136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2117,7 +2152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2134,23 +2169,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2211,7 +2246,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2228,7 +2263,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2245,7 +2280,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2262,7 +2297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2279,7 +2314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2296,7 +2331,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2313,7 +2348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2330,7 +2365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2378,24 +2413,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="85.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2436,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2500,7 +2535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2532,7 +2567,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2564,7 +2599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2596,7 +2631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -2628,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.4</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -2753,10 +2788,10 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
@@ -2788,7 +2823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>118</v>
       </c>
@@ -2821,7 +2856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>115</v>
       </c>
@@ -2854,7 +2889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -2887,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>6.1</v>
       </c>
@@ -2920,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>6.2</v>
       </c>
@@ -2953,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>7.1</v>
       </c>
@@ -2984,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>7.2</v>
       </c>
@@ -3028,10 +3063,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3072,7 +3107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3132,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>115</v>
       </c>
@@ -3122,7 +3157,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -3147,7 +3182,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>6.1</v>
       </c>
@@ -3172,7 +3207,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>6.2</v>
       </c>
@@ -3197,7 +3232,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>7.1</v>
       </c>
@@ -3222,7 +3257,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>7.2</v>
       </c>
@@ -3261,11 +3296,11 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -3283,7 +3318,7 @@
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="33" t="s">
@@ -3307,7 +3342,7 @@
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
@@ -3328,7 +3363,7 @@
       </c>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -3352,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
@@ -3384,7 +3419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -3411,7 +3446,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -3440,7 +3475,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -3467,7 +3502,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>92</v>
       </c>
@@ -3494,7 +3529,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -3522,7 +3557,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -3552,7 +3587,7 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
@@ -3580,7 +3615,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
@@ -3611,10 +3646,10 @@
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
     </row>
   </sheetData>

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16785" windowHeight="4605" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16785" windowHeight="4605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="K14">
         <f>'Sprint Work Time'!E2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
         <v>5</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="K15">
         <f>'Sprint Work Time'!E3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>5</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="K17">
         <f>'Sprint Work Time'!E5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="s">
         <v>5</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="K18">
         <f>'Sprint Work Time'!E6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
         <v>5</v>
@@ -3059,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,11 +3122,13 @@
       </c>
       <c r="E2" s="19">
         <f>SUM(G2:L2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="H2" s="19">
+        <v>2</v>
+      </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -3147,11 +3149,13 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E8" si="0">SUM(G3:L3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="19">
+        <v>1</v>
+      </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
@@ -3197,11 +3201,13 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>2</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
@@ -3222,11 +3228,13 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>3</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -3293,7 +3301,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Task 10/scrum_v02.xlsx
+++ b/Documents/Task 10/scrum_v02.xlsx
@@ -2098,13 +2098,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2173,19 +2173,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2413,27 +2413,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" customWidth="1"/>
+    <col min="3" max="3" width="26.86328125" customWidth="1"/>
+    <col min="4" max="4" width="85.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2.4</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3.2</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.4</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
         <v>118</v>
       </c>
@@ -2850,13 +2850,13 @@
       </c>
       <c r="K14">
         <f>'Sprint Work Time'!E2</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>115</v>
       </c>
@@ -2883,13 +2883,13 @@
       </c>
       <c r="K15">
         <f>'Sprint Work Time'!E3</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
         <v>114</v>
       </c>
@@ -2916,13 +2916,13 @@
       </c>
       <c r="K16">
         <f>'Sprint Work Time'!E4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="22">
         <v>6.1</v>
       </c>
@@ -2949,13 +2949,13 @@
       </c>
       <c r="K17">
         <f>'Sprint Work Time'!E5</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="22">
         <v>6.2</v>
       </c>
@@ -2982,13 +2982,13 @@
       </c>
       <c r="K18">
         <f>'Sprint Work Time'!E6</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="30">
         <v>7.1</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="30">
         <v>7.2</v>
       </c>
@@ -3060,16 +3060,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>124</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>118</v>
       </c>
@@ -3122,19 +3122,23 @@
       </c>
       <c r="E2" s="19">
         <f>SUM(G2:L2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="19">
         <v>2</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="19"/>
       <c r="H2" s="19">
         <v>2</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>115</v>
       </c>
@@ -3149,19 +3153,27 @@
       </c>
       <c r="E3" s="19">
         <f t="shared" ref="E3:E8" si="0">SUM(G3:L3)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="19">
+        <v>3</v>
+      </c>
+      <c r="H3" s="19">
+        <v>2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>2</v>
+      </c>
+      <c r="J3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="K3" s="19">
+        <v>4</v>
+      </c>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -3176,17 +3188,21 @@
       </c>
       <c r="E4" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="25"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19">
+        <v>5</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="19">
         <v>6.1</v>
       </c>
@@ -3201,19 +3217,29 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4</v>
+      </c>
+      <c r="J5" s="19">
+        <v>6</v>
+      </c>
+      <c r="K5" s="19">
         <v>2</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
-        <v>2</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="19">
         <v>6.2</v>
       </c>
@@ -3228,19 +3254,29 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="19">
+        <v>2</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
         <v>3</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
+      <c r="K6" s="19">
+        <v>2</v>
+      </c>
+      <c r="L6" s="19">
         <v>3</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="27">
         <v>7.1</v>
       </c>
@@ -3265,7 +3301,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="27">
         <v>7.2</v>
       </c>
@@ -3301,17 +3337,17 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
@@ -3326,7 +3362,7 @@
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="33" t="s">
@@ -3350,7 +3386,7 @@
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
@@ -3371,7 +3407,7 @@
       </c>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -3395,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
@@ -3427,7 +3463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -3454,7 +3490,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -3483,7 +3519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -3510,7 +3546,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>92</v>
       </c>
@@ -3537,7 +3573,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -3565,7 +3601,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -3595,7 +3631,7 @@
       </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
@@ -3623,7 +3659,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
@@ -3654,10 +3690,10 @@
       <c r="I14" s="14"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
     </row>
   </sheetData>
